--- a/messy-project-directory/data/Survey Data.xlsx
+++ b/messy-project-directory/data/Survey Data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trvrb/Documents/src/tfcb_2019/homeworks/homework01/messy-project-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonmcbane/Desktop/UW files/Fall Quarter 1st Year/MCB 536 /Homework/tfcb-homework01/messy-project-directory/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2EF31-99BB-1147-875E-0BF67F65B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0AFF2F-C087-7443-9808-6A37680F7C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="21460" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
     <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="tidy data draft" sheetId="3" r:id="rId3"/>
+    <sheet name="tidy data" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="46">
   <si>
     <t>NA</t>
   </si>
@@ -141,15 +143,43 @@
   <si>
     <t>gray cell means my measurement device wasn't calibrated correctly</t>
   </si>
+  <si>
+    <t>21+27</t>
+  </si>
+  <si>
+    <t>48 total</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>date_collected</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>weight(g)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,8 +219,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +250,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -313,11 +408,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,17 +481,649 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="24"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
@@ -423,6 +1202,33 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4FFEB5D2-854F-F34A-B429-9872E3BAB194}" name="Table1" displayName="Table1" ref="S6:W54" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="S6:W54" xr:uid="{4FFEB5D2-854F-F34A-B429-9872E3BAB194}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{48284856-9A3F-464B-880B-A2C9B39A9FBA}" name="species" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{7EBAAA9F-7AD5-384E-B73C-97EBB333282B}" name="date_collected" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7D6B370E-5D14-AD43-9483-7979D36A390C}" name="plot" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5FA1E35C-4DC3-1D4A-94E1-830C146B975C}" name="sex" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{2D5ED29B-2C4A-C442-8B6B-D9690E777DE1}" name="weight(g)" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C789CD58-45DF-DA4A-926C-0174BE1966AE}" name="Table14" displayName="Table14" ref="Y7:AB55" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="Y7:AB55" xr:uid="{C789CD58-45DF-DA4A-926C-0174BE1966AE}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{7AD18CE6-77D7-FC44-8A97-4BF2B9CF0BB0}" name="date_collected" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{804F4A81-8B09-0447-808C-9B6EEB10C64C}" name="species" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2AFD1BE8-DBFE-0449-99D5-4FCE7776FEE1}" name="plot" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{642ED5B5-6A37-1B4E-AF41-7ADD6D99F7F1}" name="sex" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -731,7 +1537,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -775,7 +1581,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -800,7 +1606,7 @@
   <dimension ref="C3:AB28"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -903,294 +1709,294 @@
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>41471</v>
       </c>
-      <c r="D8" s="16">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17"/>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>41505</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="5">
         <v>8</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16">
         <v>52</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>41590</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="5">
         <v>9</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="O8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="16">
         <v>117</v>
       </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>41471</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="5">
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>41564</v>
       </c>
-      <c r="I9" s="16">
-        <v>3</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
         <v>33</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>41591</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="5">
         <v>11</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="17">
+      <c r="O9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="16">
         <v>126</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>41471</v>
       </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="17"/>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>41564</v>
       </c>
-      <c r="I10" s="16">
-        <v>3</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
         <v>50</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>41591</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="5">
         <v>17</v>
       </c>
-      <c r="O10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" s="17" t="s">
+      <c r="O10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>41471</v>
       </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17"/>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>41618</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="5">
         <v>9</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16">
         <v>40</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <v>41591</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="5">
         <v>14</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="17" t="s">
+      <c r="O11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>41473</v>
       </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>41618</v>
       </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="17">
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="16">
         <v>45</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>41591</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="5">
         <v>11</v>
       </c>
-      <c r="O12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="17">
+      <c r="O12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16">
         <v>122</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>41473</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="5">
         <v>7</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>41619</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>8</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="J13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="20">
         <v>41</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <v>41591</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="5">
         <v>4</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="17">
+      <c r="O13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="16">
         <v>107</v>
       </c>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>41473</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="5"/>
@@ -1199,31 +2005,31 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <v>41591</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>4</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="21">
+      <c r="O14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="20">
         <v>115</v>
       </c>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>41473</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>6</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="5"/>
@@ -1411,7 +2217,7 @@
   <dimension ref="C2:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -2286,4 +3092,4071 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A19DDA5-BACD-694C-8725-EE82DA7DB3CB}">
+  <dimension ref="A1:AG60"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8:Y55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="51" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="25" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:33" ht="25" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+    </row>
+    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="96"/>
+      <c r="AF6" s="96"/>
+      <c r="AG6" s="97"/>
+    </row>
+    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="86">
+        <v>28498</v>
+      </c>
+      <c r="U7" s="60">
+        <v>4</v>
+      </c>
+      <c r="V7" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" s="87">
+        <v>37</v>
+      </c>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z7" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA7" s="100" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" s="101" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD7" s="96"/>
+      <c r="AE7" s="96"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+    </row>
+    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="31">
+        <v>41471</v>
+      </c>
+      <c r="D8" s="22">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="41">
+        <v>41505</v>
+      </c>
+      <c r="I8" s="39">
+        <v>8</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="40">
+        <v>52</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="50">
+        <v>41590</v>
+      </c>
+      <c r="N8" s="48">
+        <v>9</v>
+      </c>
+      <c r="O8" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="49">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" s="86">
+        <v>28498</v>
+      </c>
+      <c r="U8" s="60">
+        <v>4</v>
+      </c>
+      <c r="V8" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="89"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="102">
+        <v>28498</v>
+      </c>
+      <c r="Z8" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="100">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" s="104">
+        <v>37</v>
+      </c>
+      <c r="AD8" s="96"/>
+      <c r="AE8" s="96"/>
+      <c r="AF8" s="97"/>
+      <c r="AG8" s="97"/>
+    </row>
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="31">
+        <v>41471</v>
+      </c>
+      <c r="D9" s="22">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="41">
+        <v>41564</v>
+      </c>
+      <c r="I9" s="39">
+        <v>3</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="40">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="50">
+        <v>41591</v>
+      </c>
+      <c r="N9" s="48">
+        <v>11</v>
+      </c>
+      <c r="O9" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="49">
+        <v>126</v>
+      </c>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="86">
+        <v>28498</v>
+      </c>
+      <c r="U9" s="60">
+        <v>4</v>
+      </c>
+      <c r="V9" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" s="87">
+        <v>48</v>
+      </c>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="102">
+        <v>28498</v>
+      </c>
+      <c r="Z9" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="105">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="96"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="97"/>
+      <c r="AG9" s="97"/>
+    </row>
+    <row r="10" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="31">
+        <v>41471</v>
+      </c>
+      <c r="D10" s="22">
+        <v>3</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="41">
+        <v>41564</v>
+      </c>
+      <c r="I10" s="39">
+        <v>3</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="40">
+        <v>50</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="50">
+        <v>41591</v>
+      </c>
+      <c r="N10" s="48">
+        <v>17</v>
+      </c>
+      <c r="O10" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" s="86">
+        <v>28498</v>
+      </c>
+      <c r="U10" s="60">
+        <v>4</v>
+      </c>
+      <c r="V10" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="W10" s="87">
+        <v>52</v>
+      </c>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="102">
+        <v>28498</v>
+      </c>
+      <c r="Z10" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="105">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="104">
+        <v>48</v>
+      </c>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="97"/>
+    </row>
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="31">
+        <v>41471</v>
+      </c>
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="41">
+        <v>41618</v>
+      </c>
+      <c r="I11" s="39">
+        <v>9</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="40">
+        <v>40</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="50">
+        <v>41591</v>
+      </c>
+      <c r="N11" s="48">
+        <v>14</v>
+      </c>
+      <c r="O11" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11" s="86">
+        <v>28498</v>
+      </c>
+      <c r="U11" s="60">
+        <v>4</v>
+      </c>
+      <c r="V11" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" s="87">
+        <v>35</v>
+      </c>
+      <c r="X11" s="94"/>
+      <c r="Y11" s="102">
+        <v>28498</v>
+      </c>
+      <c r="Z11" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA11" s="105">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="104">
+        <v>52</v>
+      </c>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="97"/>
+    </row>
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="31">
+        <v>41473</v>
+      </c>
+      <c r="D12" s="22">
+        <v>3</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="41">
+        <v>41618</v>
+      </c>
+      <c r="I12" s="39">
+        <v>1</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="40">
+        <v>45</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="M12" s="50">
+        <v>41591</v>
+      </c>
+      <c r="N12" s="48">
+        <v>11</v>
+      </c>
+      <c r="O12" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="49">
+        <v>122</v>
+      </c>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="66">
+        <v>41471</v>
+      </c>
+      <c r="U12" s="67">
+        <v>2</v>
+      </c>
+      <c r="V12" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="89"/>
+      <c r="X12" s="94"/>
+      <c r="Y12" s="102">
+        <v>28498</v>
+      </c>
+      <c r="Z12" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="105">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="104">
+        <v>35</v>
+      </c>
+      <c r="AD12" s="96"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+    </row>
+    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="31">
+        <v>41473</v>
+      </c>
+      <c r="D13" s="22">
+        <v>7</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="42">
+        <v>41619</v>
+      </c>
+      <c r="I13" s="43">
+        <v>8</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="44">
+        <v>41</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="50">
+        <v>41591</v>
+      </c>
+      <c r="N13" s="48">
+        <v>4</v>
+      </c>
+      <c r="O13" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="49">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" s="66">
+        <v>41471</v>
+      </c>
+      <c r="U13" s="67">
+        <v>7</v>
+      </c>
+      <c r="V13" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="W13" s="68">
+        <v>33</v>
+      </c>
+      <c r="X13" s="94"/>
+      <c r="Y13" s="102">
+        <v>41471</v>
+      </c>
+      <c r="Z13" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="104"/>
+      <c r="AD13" s="96"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="97"/>
+      <c r="AG13" s="97"/>
+    </row>
+    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="31">
+        <v>41473</v>
+      </c>
+      <c r="D14" s="22">
+        <v>4</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="51">
+        <v>41591</v>
+      </c>
+      <c r="N14" s="52">
+        <v>4</v>
+      </c>
+      <c r="O14" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="52">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" s="66">
+        <v>41471</v>
+      </c>
+      <c r="U14" s="67">
+        <v>3</v>
+      </c>
+      <c r="V14" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="89"/>
+      <c r="X14" s="94"/>
+      <c r="Y14" s="102">
+        <v>41471</v>
+      </c>
+      <c r="Z14" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="105">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="104">
+        <v>33</v>
+      </c>
+      <c r="AD14" s="96"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+    </row>
+    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="32">
+        <v>41473</v>
+      </c>
+      <c r="D15" s="33">
+        <v>6</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="66">
+        <v>41471</v>
+      </c>
+      <c r="U15" s="67">
+        <v>1</v>
+      </c>
+      <c r="V15" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" s="89"/>
+      <c r="X15" s="94"/>
+      <c r="Y15" s="102">
+        <v>41471</v>
+      </c>
+      <c r="Z15" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+    </row>
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" s="66">
+        <v>41473</v>
+      </c>
+      <c r="U16" s="67">
+        <v>3</v>
+      </c>
+      <c r="V16" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" s="68">
+        <v>40</v>
+      </c>
+      <c r="X16" s="94"/>
+      <c r="Y16" s="102">
+        <v>41471</v>
+      </c>
+      <c r="Z16" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="105">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="96"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+    </row>
+    <row r="17" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" s="66">
+        <v>41473</v>
+      </c>
+      <c r="U17" s="67">
+        <v>7</v>
+      </c>
+      <c r="V17" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" s="68">
+        <v>48</v>
+      </c>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="102">
+        <v>41473</v>
+      </c>
+      <c r="Z17" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="104">
+        <v>40</v>
+      </c>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+    </row>
+    <row r="18" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="66">
+        <v>41473</v>
+      </c>
+      <c r="U18" s="67">
+        <v>4</v>
+      </c>
+      <c r="V18" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="68">
+        <v>29</v>
+      </c>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="102">
+        <v>41473</v>
+      </c>
+      <c r="Z18" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="105">
+        <v>7</v>
+      </c>
+      <c r="AB18" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="104">
+        <v>48</v>
+      </c>
+      <c r="AD18" s="96"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="97"/>
+      <c r="AG18" s="97"/>
+    </row>
+    <row r="19" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" s="66">
+        <v>41473</v>
+      </c>
+      <c r="U19" s="67">
+        <v>6</v>
+      </c>
+      <c r="V19" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" s="68">
+        <v>37</v>
+      </c>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="102">
+        <v>41473</v>
+      </c>
+      <c r="Z19" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="105">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC19" s="104">
+        <v>29</v>
+      </c>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="97"/>
+    </row>
+    <row r="20" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" s="70">
+        <v>41505</v>
+      </c>
+      <c r="U20" s="71">
+        <v>8</v>
+      </c>
+      <c r="V20" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" s="72">
+        <v>52</v>
+      </c>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="102">
+        <v>41473</v>
+      </c>
+      <c r="Z20" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="105">
+        <v>6</v>
+      </c>
+      <c r="AB20" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" s="104">
+        <v>37</v>
+      </c>
+      <c r="AD20" s="96"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="97"/>
+      <c r="AG20" s="97"/>
+    </row>
+    <row r="21" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T21" s="70">
+        <v>41564</v>
+      </c>
+      <c r="U21" s="71">
+        <v>3</v>
+      </c>
+      <c r="V21" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" s="72">
+        <v>33</v>
+      </c>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="102">
+        <v>41505</v>
+      </c>
+      <c r="Z21" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21" s="105">
+        <v>8</v>
+      </c>
+      <c r="AB21" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" s="104">
+        <v>52</v>
+      </c>
+      <c r="AD21" s="96"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="97"/>
+      <c r="AG21" s="97"/>
+    </row>
+    <row r="22" spans="1:33" ht="35" x14ac:dyDescent="0.35">
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T22" s="70">
+        <v>41564</v>
+      </c>
+      <c r="U22" s="71">
+        <v>3</v>
+      </c>
+      <c r="V22" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="72">
+        <v>50</v>
+      </c>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="102">
+        <v>41564</v>
+      </c>
+      <c r="Z22" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA22" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" s="104">
+        <v>33</v>
+      </c>
+      <c r="AD22" s="96"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="97"/>
+    </row>
+    <row r="23" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="74">
+        <v>41590</v>
+      </c>
+      <c r="U23" s="75">
+        <v>9</v>
+      </c>
+      <c r="V23" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="76">
+        <v>117</v>
+      </c>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="102">
+        <v>41564</v>
+      </c>
+      <c r="Z23" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB23" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="104">
+        <v>50</v>
+      </c>
+      <c r="AD23" s="96"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+    </row>
+    <row r="24" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="74">
+        <v>41591</v>
+      </c>
+      <c r="U24" s="75">
+        <v>11</v>
+      </c>
+      <c r="V24" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" s="76">
+        <v>126</v>
+      </c>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="102">
+        <v>41590</v>
+      </c>
+      <c r="Z24" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="105">
+        <v>9</v>
+      </c>
+      <c r="AB24" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="104">
+        <v>117</v>
+      </c>
+      <c r="AD24" s="96"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="97"/>
+      <c r="AG24" s="97"/>
+    </row>
+    <row r="25" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="74">
+        <v>41591</v>
+      </c>
+      <c r="U25" s="75">
+        <v>17</v>
+      </c>
+      <c r="V25" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="89"/>
+      <c r="X25" s="94"/>
+      <c r="Y25" s="102">
+        <v>41591</v>
+      </c>
+      <c r="Z25" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="105">
+        <v>11</v>
+      </c>
+      <c r="AB25" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="104">
+        <v>126</v>
+      </c>
+      <c r="AD25" s="96"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="97"/>
+    </row>
+    <row r="26" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C26" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="74">
+        <v>41591</v>
+      </c>
+      <c r="U26" s="75">
+        <v>14</v>
+      </c>
+      <c r="V26" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" s="89"/>
+      <c r="X26" s="94"/>
+      <c r="Y26" s="102">
+        <v>41591</v>
+      </c>
+      <c r="Z26" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="105">
+        <v>17</v>
+      </c>
+      <c r="AB26" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="96"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="97"/>
+      <c r="AG26" s="97"/>
+    </row>
+    <row r="27" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="P27" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="74">
+        <v>41591</v>
+      </c>
+      <c r="U27" s="75">
+        <v>11</v>
+      </c>
+      <c r="V27" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" s="76">
+        <v>122</v>
+      </c>
+      <c r="X27" s="94"/>
+      <c r="Y27" s="102">
+        <v>41591</v>
+      </c>
+      <c r="Z27" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="105">
+        <v>14</v>
+      </c>
+      <c r="AB27" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="96"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="97"/>
+      <c r="AG27" s="97"/>
+    </row>
+    <row r="28" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C28" s="54">
+        <v>41648</v>
+      </c>
+      <c r="D28" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="53">
+        <v>40</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="56">
+        <v>41647</v>
+      </c>
+      <c r="I28" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="59">
+        <v>42074</v>
+      </c>
+      <c r="N28" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="P28" s="58">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="74">
+        <v>41591</v>
+      </c>
+      <c r="U28" s="75">
+        <v>4</v>
+      </c>
+      <c r="V28" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="W28" s="76">
+        <v>107</v>
+      </c>
+      <c r="X28" s="94"/>
+      <c r="Y28" s="102">
+        <v>41591</v>
+      </c>
+      <c r="Z28" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA28" s="105">
+        <v>11</v>
+      </c>
+      <c r="AB28" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC28" s="104">
+        <v>122</v>
+      </c>
+      <c r="AD28" s="96"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="97"/>
+    </row>
+    <row r="29" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C29" s="54">
+        <v>41648</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="53">
+        <v>36</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="56">
+        <v>41647</v>
+      </c>
+      <c r="I29" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="55">
+        <v>44</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="59">
+        <v>42102</v>
+      </c>
+      <c r="N29" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="74">
+        <v>41591</v>
+      </c>
+      <c r="U29" s="75">
+        <v>4</v>
+      </c>
+      <c r="V29" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" s="76">
+        <v>115</v>
+      </c>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="102">
+        <v>41591</v>
+      </c>
+      <c r="Z29" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="105">
+        <v>4</v>
+      </c>
+      <c r="AB29" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC29" s="104">
+        <v>107</v>
+      </c>
+      <c r="AD29" s="96"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="97"/>
+      <c r="AG29" s="97"/>
+    </row>
+    <row r="30" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C30" s="54">
+        <v>41711</v>
+      </c>
+      <c r="D30" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="53">
+        <v>51</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="56">
+        <v>41647</v>
+      </c>
+      <c r="I30" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="55">
+        <v>7</v>
+      </c>
+      <c r="L30" s="5"/>
+      <c r="M30" s="59">
+        <v>42130</v>
+      </c>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T30" s="70">
+        <v>41618</v>
+      </c>
+      <c r="U30" s="71">
+        <v>9</v>
+      </c>
+      <c r="V30" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="W30" s="72">
+        <v>40</v>
+      </c>
+      <c r="X30" s="94"/>
+      <c r="Y30" s="102">
+        <v>41591</v>
+      </c>
+      <c r="Z30" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="105">
+        <v>4</v>
+      </c>
+      <c r="AB30" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC30" s="104">
+        <v>115</v>
+      </c>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="97"/>
+      <c r="AG30" s="97"/>
+    </row>
+    <row r="31" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C31" s="54">
+        <v>41711</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="53">
+        <v>44</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="56">
+        <v>41647</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="55">
+        <v>45</v>
+      </c>
+      <c r="L31" s="5"/>
+      <c r="M31" s="59">
+        <v>42142</v>
+      </c>
+      <c r="N31" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="58">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T31" s="70">
+        <v>41618</v>
+      </c>
+      <c r="U31" s="71">
+        <v>1</v>
+      </c>
+      <c r="V31" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" s="72">
+        <v>45</v>
+      </c>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="102">
+        <v>41618</v>
+      </c>
+      <c r="Z31" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA31" s="105">
+        <v>9</v>
+      </c>
+      <c r="AB31" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="104">
+        <v>40</v>
+      </c>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="97"/>
+      <c r="AG31" s="97"/>
+    </row>
+    <row r="32" spans="1:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C32" s="54">
+        <v>41711</v>
+      </c>
+      <c r="D32" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="53">
+        <v>146</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="56">
+        <v>41647</v>
+      </c>
+      <c r="I32" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="59">
+        <v>42164</v>
+      </c>
+      <c r="N32" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="O32" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="58">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="T32" s="70">
+        <v>41619</v>
+      </c>
+      <c r="U32" s="71">
+        <v>8</v>
+      </c>
+      <c r="V32" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="W32" s="72">
+        <v>41</v>
+      </c>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="102">
+        <v>41618</v>
+      </c>
+      <c r="Z32" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA32" s="105">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="104">
+        <v>45</v>
+      </c>
+      <c r="AD32" s="96"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="97"/>
+      <c r="AG32" s="97"/>
+    </row>
+    <row r="33" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="56">
+        <v>41647</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="55">
+        <v>157</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="59">
+        <v>42193</v>
+      </c>
+      <c r="N33" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="58">
+        <v>115</v>
+      </c>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" s="81">
+        <v>41647</v>
+      </c>
+      <c r="U33" s="55">
+        <v>2</v>
+      </c>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="102">
+        <v>41619</v>
+      </c>
+      <c r="Z33" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA33" s="105">
+        <v>8</v>
+      </c>
+      <c r="AB33" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC33" s="104">
+        <v>41</v>
+      </c>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="97"/>
+      <c r="AG33" s="97"/>
+    </row>
+    <row r="34" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="56">
+        <v>41647</v>
+      </c>
+      <c r="I34" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="59">
+        <v>42193</v>
+      </c>
+      <c r="N34" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="P34" s="58">
+        <v>190</v>
+      </c>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="T34" s="81">
+        <v>41647</v>
+      </c>
+      <c r="U34" s="55">
+        <v>2</v>
+      </c>
+      <c r="V34" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W34" s="82">
+        <v>44</v>
+      </c>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="102">
+        <v>41647</v>
+      </c>
+      <c r="Z34" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB34" s="105"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+    </row>
+    <row r="35" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="56">
+        <v>41688</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="55">
+        <v>218</v>
+      </c>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="81">
+        <v>41647</v>
+      </c>
+      <c r="U35" s="55">
+        <v>2</v>
+      </c>
+      <c r="V35" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="W35" s="82">
+        <v>7</v>
+      </c>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="102">
+        <v>41647</v>
+      </c>
+      <c r="Z35" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="104">
+        <v>44</v>
+      </c>
+      <c r="AD35" s="96"/>
+      <c r="AE35" s="96"/>
+      <c r="AF35" s="97"/>
+      <c r="AG35" s="97"/>
+    </row>
+    <row r="36" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="56">
+        <v>41688</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="55">
+        <v>7</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="T36" s="81">
+        <v>41647</v>
+      </c>
+      <c r="U36" s="55">
+        <v>2</v>
+      </c>
+      <c r="V36" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W36" s="82">
+        <v>45</v>
+      </c>
+      <c r="X36" s="95"/>
+      <c r="Y36" s="102">
+        <v>41647</v>
+      </c>
+      <c r="Z36" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC36" s="104">
+        <v>7</v>
+      </c>
+      <c r="AD36" s="97"/>
+      <c r="AE36" s="97"/>
+      <c r="AF36" s="97"/>
+      <c r="AG36" s="97"/>
+    </row>
+    <row r="37" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="56">
+        <v>41688</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="55">
+        <v>52</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="81">
+        <v>41647</v>
+      </c>
+      <c r="U37" s="55">
+        <v>2</v>
+      </c>
+      <c r="V37" s="89"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="95"/>
+      <c r="Y37" s="102">
+        <v>41647</v>
+      </c>
+      <c r="Z37" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="104">
+        <v>45</v>
+      </c>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="97"/>
+    </row>
+    <row r="38" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="T38" s="81">
+        <v>41647</v>
+      </c>
+      <c r="U38" s="55">
+        <v>2</v>
+      </c>
+      <c r="V38" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W38" s="82">
+        <v>157</v>
+      </c>
+      <c r="X38" s="95"/>
+      <c r="Y38" s="102">
+        <v>41647</v>
+      </c>
+      <c r="Z38" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA38" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="105"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+    </row>
+    <row r="39" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="T39" s="81">
+        <v>41647</v>
+      </c>
+      <c r="U39" s="55">
+        <v>2</v>
+      </c>
+      <c r="V39" s="89"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="95"/>
+      <c r="Y39" s="102">
+        <v>41647</v>
+      </c>
+      <c r="Z39" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA39" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="97"/>
+      <c r="AG39" s="97"/>
+    </row>
+    <row r="40" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="T40" s="78">
+        <v>41648</v>
+      </c>
+      <c r="U40" s="53">
+        <v>1</v>
+      </c>
+      <c r="V40" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="W40" s="79">
+        <v>40</v>
+      </c>
+      <c r="X40" s="95"/>
+      <c r="Y40" s="102">
+        <v>41647</v>
+      </c>
+      <c r="Z40" s="103" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="105"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="97"/>
+      <c r="AE40" s="97"/>
+      <c r="AF40" s="97"/>
+      <c r="AG40" s="97"/>
+    </row>
+    <row r="41" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="T41" s="78">
+        <v>41648</v>
+      </c>
+      <c r="U41" s="53">
+        <v>1</v>
+      </c>
+      <c r="V41" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="W41" s="79">
+        <v>36</v>
+      </c>
+      <c r="X41" s="95"/>
+      <c r="Y41" s="102">
+        <v>41648</v>
+      </c>
+      <c r="Z41" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="105">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="104">
+        <v>40</v>
+      </c>
+      <c r="AD41" s="97"/>
+      <c r="AE41" s="97"/>
+      <c r="AF41" s="97"/>
+      <c r="AG41" s="97"/>
+    </row>
+    <row r="42" spans="3:33" ht="31" x14ac:dyDescent="0.35">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" s="81">
+        <v>41688</v>
+      </c>
+      <c r="U42" s="55">
+        <v>2</v>
+      </c>
+      <c r="V42" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W42" s="82">
+        <v>218</v>
+      </c>
+      <c r="X42" s="95"/>
+      <c r="Y42" s="102">
+        <v>41648</v>
+      </c>
+      <c r="Z42" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA42" s="105">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC42" s="104">
+        <v>36</v>
+      </c>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
+    </row>
+    <row r="43" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="81">
+        <v>41688</v>
+      </c>
+      <c r="U43" s="55">
+        <v>2</v>
+      </c>
+      <c r="V43" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="W43" s="82">
+        <v>7</v>
+      </c>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="102">
+        <v>41688</v>
+      </c>
+      <c r="Z43" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="97"/>
+      <c r="AG43" s="97"/>
+    </row>
+    <row r="44" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="T44" s="81">
+        <v>41688</v>
+      </c>
+      <c r="U44" s="55">
+        <v>2</v>
+      </c>
+      <c r="V44" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="W44" s="82">
+        <v>52</v>
+      </c>
+      <c r="X44" s="95"/>
+      <c r="Y44" s="102">
+        <v>41688</v>
+      </c>
+      <c r="Z44" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB44" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC44" s="104">
+        <v>7</v>
+      </c>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+    </row>
+    <row r="45" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="84">
+        <v>41709</v>
+      </c>
+      <c r="U45" s="57">
+        <v>3</v>
+      </c>
+      <c r="V45" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="W45" s="58">
+        <v>8</v>
+      </c>
+      <c r="X45" s="95"/>
+      <c r="Y45" s="102">
+        <v>41688</v>
+      </c>
+      <c r="Z45" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA45" s="105">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="104">
+        <v>52</v>
+      </c>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+    </row>
+    <row r="46" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="T46" s="78">
+        <v>41711</v>
+      </c>
+      <c r="U46" s="53">
+        <v>1</v>
+      </c>
+      <c r="V46" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="W46" s="79">
+        <v>51</v>
+      </c>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="102">
+        <v>41709</v>
+      </c>
+      <c r="Z46" s="103" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB46" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="104">
+        <v>8</v>
+      </c>
+      <c r="AD46" s="97"/>
+      <c r="AE46" s="97"/>
+      <c r="AF46" s="97"/>
+      <c r="AG46" s="97"/>
+    </row>
+    <row r="47" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C47" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="T47" s="78">
+        <v>41711</v>
+      </c>
+      <c r="U47" s="53">
+        <v>1</v>
+      </c>
+      <c r="V47" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="W47" s="79">
+        <v>44</v>
+      </c>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="102">
+        <v>41711</v>
+      </c>
+      <c r="Z47" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA47" s="105">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="104">
+        <v>51</v>
+      </c>
+      <c r="AD47" s="97"/>
+      <c r="AE47" s="97"/>
+      <c r="AF47" s="97"/>
+      <c r="AG47" s="97"/>
+    </row>
+    <row r="48" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C48" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="78">
+        <v>41711</v>
+      </c>
+      <c r="U48" s="53">
+        <v>1</v>
+      </c>
+      <c r="V48" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="W48" s="79">
+        <v>146</v>
+      </c>
+      <c r="X48" s="97"/>
+      <c r="Y48" s="102">
+        <v>41711</v>
+      </c>
+      <c r="Z48" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA48" s="105">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="104">
+        <v>44</v>
+      </c>
+      <c r="AD48" s="97"/>
+      <c r="AE48" s="97"/>
+      <c r="AF48" s="97"/>
+      <c r="AG48" s="97"/>
+    </row>
+    <row r="49" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C49" s="61">
+        <v>28498</v>
+      </c>
+      <c r="D49" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="60">
+        <v>37</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="84">
+        <v>41737</v>
+      </c>
+      <c r="U49" s="57">
+        <v>3</v>
+      </c>
+      <c r="V49" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W49" s="89"/>
+      <c r="X49" s="97"/>
+      <c r="Y49" s="102">
+        <v>41711</v>
+      </c>
+      <c r="Z49" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="105">
+        <v>1</v>
+      </c>
+      <c r="AB49" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC49" s="104">
+        <v>146</v>
+      </c>
+      <c r="AD49" s="97"/>
+      <c r="AE49" s="97"/>
+      <c r="AF49" s="97"/>
+      <c r="AG49" s="97"/>
+    </row>
+    <row r="50" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C50" s="61">
+        <v>28498</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="60"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="84">
+        <v>41765</v>
+      </c>
+      <c r="U50" s="57">
+        <v>3</v>
+      </c>
+      <c r="V50" s="90"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="97"/>
+      <c r="Y50" s="102">
+        <v>41737</v>
+      </c>
+      <c r="Z50" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB50" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC50" s="104"/>
+      <c r="AD50" s="97"/>
+      <c r="AE50" s="97"/>
+      <c r="AF50" s="97"/>
+      <c r="AG50" s="97"/>
+    </row>
+    <row r="51" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C51" s="61">
+        <v>28498</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="60">
+        <v>48</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" s="84">
+        <v>41777</v>
+      </c>
+      <c r="U51" s="57">
+        <v>3</v>
+      </c>
+      <c r="V51" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W51" s="58">
+        <v>182</v>
+      </c>
+      <c r="X51" s="97"/>
+      <c r="Y51" s="102">
+        <v>41765</v>
+      </c>
+      <c r="Z51" s="103"/>
+      <c r="AA51" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="104"/>
+      <c r="AD51" s="97"/>
+      <c r="AE51" s="97"/>
+      <c r="AF51" s="97"/>
+      <c r="AG51" s="97"/>
+    </row>
+    <row r="52" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C52" s="61">
+        <v>28498</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="60">
+        <v>52</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="T52" s="84">
+        <v>41799</v>
+      </c>
+      <c r="U52" s="57">
+        <v>3</v>
+      </c>
+      <c r="V52" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W52" s="58">
+        <v>29</v>
+      </c>
+      <c r="X52" s="97"/>
+      <c r="Y52" s="102">
+        <v>41777</v>
+      </c>
+      <c r="Z52" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB52" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC52" s="104">
+        <v>182</v>
+      </c>
+      <c r="AD52" s="97"/>
+      <c r="AE52" s="97"/>
+      <c r="AF52" s="97"/>
+      <c r="AG52" s="97"/>
+    </row>
+    <row r="53" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C53" s="61">
+        <v>28498</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="60">
+        <v>35</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" s="84">
+        <v>41828</v>
+      </c>
+      <c r="U53" s="57">
+        <v>3</v>
+      </c>
+      <c r="V53" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="W53" s="58">
+        <v>115</v>
+      </c>
+      <c r="X53" s="97"/>
+      <c r="Y53" s="102">
+        <v>41799</v>
+      </c>
+      <c r="Z53" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA53" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB53" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC53" s="104">
+        <v>29</v>
+      </c>
+      <c r="AD53" s="97"/>
+      <c r="AE53" s="97"/>
+      <c r="AF53" s="97"/>
+      <c r="AG53" s="97"/>
+    </row>
+    <row r="54" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="T54" s="92">
+        <v>41828</v>
+      </c>
+      <c r="U54" s="93">
+        <v>3</v>
+      </c>
+      <c r="V54" s="93" t="s">
+        <v>1</v>
+      </c>
+      <c r="W54" s="21">
+        <v>190</v>
+      </c>
+      <c r="X54" s="97"/>
+      <c r="Y54" s="102">
+        <v>41828</v>
+      </c>
+      <c r="Z54" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB54" s="105" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="104">
+        <v>115</v>
+      </c>
+      <c r="AD54" s="97"/>
+      <c r="AE54" s="97"/>
+      <c r="AF54" s="97"/>
+      <c r="AG54" s="97"/>
+    </row>
+    <row r="55" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="97"/>
+      <c r="Y55" s="106">
+        <v>41828</v>
+      </c>
+      <c r="Z55" s="107" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="108">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="109">
+        <v>190</v>
+      </c>
+      <c r="AD55" s="97"/>
+      <c r="AE55" s="97"/>
+      <c r="AF55" s="97"/>
+      <c r="AG55" s="97"/>
+    </row>
+    <row r="56" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="X56" s="97"/>
+      <c r="Y56" s="97"/>
+      <c r="Z56" s="97"/>
+      <c r="AA56" s="97"/>
+      <c r="AB56" s="97"/>
+      <c r="AC56" s="97"/>
+      <c r="AD56" s="97"/>
+      <c r="AE56" s="97"/>
+      <c r="AF56" s="97"/>
+      <c r="AG56" s="97"/>
+    </row>
+    <row r="57" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+    </row>
+    <row r="58" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+    </row>
+    <row r="59" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+    </row>
+    <row r="60" spans="3:33" ht="30" x14ac:dyDescent="0.3">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EB52F1-5406-D949-BDB2-EA2D49BECD0F}">
+  <dimension ref="B1:J49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B1" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="B2" s="112">
+        <v>28498</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="110">
+        <v>4</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="110">
+        <v>37</v>
+      </c>
+      <c r="J2" s="111"/>
+    </row>
+    <row r="3" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B3" s="112">
+        <v>28498</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="110">
+        <v>4</v>
+      </c>
+      <c r="E3" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="110"/>
+    </row>
+    <row r="4" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B4" s="112">
+        <v>28498</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="110">
+        <v>4</v>
+      </c>
+      <c r="E4" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="110">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B5" s="112">
+        <v>28498</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="110">
+        <v>4</v>
+      </c>
+      <c r="E5" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="110">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B6" s="112">
+        <v>28498</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="110">
+        <v>4</v>
+      </c>
+      <c r="E6" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="110">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B7" s="112">
+        <v>41471</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="110">
+        <v>2</v>
+      </c>
+      <c r="E7" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="110"/>
+    </row>
+    <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="112">
+        <v>41471</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="110">
+        <v>7</v>
+      </c>
+      <c r="E8" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="110">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B9" s="112">
+        <v>41471</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="110">
+        <v>3</v>
+      </c>
+      <c r="E9" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="110"/>
+    </row>
+    <row r="10" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B10" s="112">
+        <v>41471</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="110">
+        <v>1</v>
+      </c>
+      <c r="E10" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="110"/>
+    </row>
+    <row r="11" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B11" s="112">
+        <v>41473</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="110">
+        <v>3</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="110">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B12" s="112">
+        <v>41473</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="110">
+        <v>7</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="110">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B13" s="112">
+        <v>41473</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="110">
+        <v>4</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="110">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B14" s="112">
+        <v>41473</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="110">
+        <v>6</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="110">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B15" s="112">
+        <v>41505</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="110">
+        <v>8</v>
+      </c>
+      <c r="E15" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="110">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B16" s="112">
+        <v>41564</v>
+      </c>
+      <c r="C16" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="110">
+        <v>3</v>
+      </c>
+      <c r="E16" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="110">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B17" s="112">
+        <v>41564</v>
+      </c>
+      <c r="C17" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="110">
+        <v>3</v>
+      </c>
+      <c r="E17" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="110">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B18" s="112">
+        <v>41590</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="110">
+        <v>9</v>
+      </c>
+      <c r="E18" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="110">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B19" s="112">
+        <v>41591</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="110">
+        <v>11</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="110">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B20" s="112">
+        <v>41591</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="110">
+        <v>17</v>
+      </c>
+      <c r="E20" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="110"/>
+    </row>
+    <row r="21" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B21" s="112">
+        <v>41591</v>
+      </c>
+      <c r="C21" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="110">
+        <v>14</v>
+      </c>
+      <c r="E21" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="110"/>
+    </row>
+    <row r="22" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B22" s="112">
+        <v>41591</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="110">
+        <v>11</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="110">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B23" s="112">
+        <v>41591</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="110">
+        <v>4</v>
+      </c>
+      <c r="E23" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="110">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B24" s="112">
+        <v>41591</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="110">
+        <v>4</v>
+      </c>
+      <c r="E24" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="110">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B25" s="112">
+        <v>41618</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="110">
+        <v>9</v>
+      </c>
+      <c r="E25" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="110">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B26" s="112">
+        <v>41618</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="110">
+        <v>1</v>
+      </c>
+      <c r="E26" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B27" s="112">
+        <v>41619</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="110">
+        <v>8</v>
+      </c>
+      <c r="E27" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="110">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B28" s="112">
+        <v>41647</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="110">
+        <v>2</v>
+      </c>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+    </row>
+    <row r="29" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B29" s="112">
+        <v>41647</v>
+      </c>
+      <c r="C29" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="110">
+        <v>2</v>
+      </c>
+      <c r="E29" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="110">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B30" s="112">
+        <v>41647</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="110">
+        <v>2</v>
+      </c>
+      <c r="E30" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B31" s="112">
+        <v>41647</v>
+      </c>
+      <c r="C31" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="110">
+        <v>2</v>
+      </c>
+      <c r="E31" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="110">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B32" s="112">
+        <v>41647</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="110">
+        <v>2</v>
+      </c>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+    </row>
+    <row r="33" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B33" s="112">
+        <v>41647</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="110">
+        <v>2</v>
+      </c>
+      <c r="E33" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="110"/>
+    </row>
+    <row r="34" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B34" s="112">
+        <v>41647</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="110">
+        <v>2</v>
+      </c>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+    </row>
+    <row r="35" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B35" s="112">
+        <v>41648</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="110">
+        <v>1</v>
+      </c>
+      <c r="E35" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="110">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B36" s="112">
+        <v>41648</v>
+      </c>
+      <c r="C36" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="110">
+        <v>1</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B37" s="112">
+        <v>41688</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="110">
+        <v>2</v>
+      </c>
+      <c r="E37" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="110"/>
+    </row>
+    <row r="38" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B38" s="112">
+        <v>41688</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="110">
+        <v>2</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B39" s="112">
+        <v>41688</v>
+      </c>
+      <c r="C39" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="110">
+        <v>2</v>
+      </c>
+      <c r="E39" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="110">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B40" s="112">
+        <v>41709</v>
+      </c>
+      <c r="C40" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="110">
+        <v>3</v>
+      </c>
+      <c r="E40" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B41" s="112">
+        <v>41711</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="110">
+        <v>1</v>
+      </c>
+      <c r="E41" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="110">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B42" s="112">
+        <v>41711</v>
+      </c>
+      <c r="C42" s="110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="110">
+        <v>1</v>
+      </c>
+      <c r="E42" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="110">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B43" s="112">
+        <v>41711</v>
+      </c>
+      <c r="C43" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="110">
+        <v>1</v>
+      </c>
+      <c r="E43" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="110">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B44" s="112">
+        <v>41737</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="110">
+        <v>3</v>
+      </c>
+      <c r="E44" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="110"/>
+    </row>
+    <row r="45" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B45" s="112">
+        <v>41765</v>
+      </c>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110">
+        <v>3</v>
+      </c>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+    </row>
+    <row r="46" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B46" s="112">
+        <v>41777</v>
+      </c>
+      <c r="C46" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="110">
+        <v>3</v>
+      </c>
+      <c r="E46" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="110">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B47" s="112">
+        <v>41799</v>
+      </c>
+      <c r="C47" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="110">
+        <v>3</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="110">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B48" s="112">
+        <v>41828</v>
+      </c>
+      <c r="C48" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="110">
+        <v>3</v>
+      </c>
+      <c r="E48" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="110">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="B49" s="112">
+        <v>41828</v>
+      </c>
+      <c r="C49" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="110">
+        <v>3</v>
+      </c>
+      <c r="E49" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="110">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>